--- a/public/templates/allers-vers-exemple.xlsx
+++ b/public/templates/allers-vers-exemple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Src\Beta.gouv\fonds-prevention-argile\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samir\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31348698-6471-487B-A83E-5EF90A06A695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9025D1E5-110A-42E9-AFB7-7551FDBB6061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>nom</t>
   </si>
   <si>
-    <t>codes_insee</t>
-  </si>
-  <si>
     <t>emails</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>0607080910</t>
+  </si>
+  <si>
+    <t>epci</t>
   </si>
 </sst>
 </file>
@@ -574,10 +574,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,189 +585,176 @@
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" t="s">
+      <c r="E2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="5"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="5"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{9497F467-8230-4A2C-98F8-C03A05D5A298}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{48C0891A-936E-400F-A332-08C2F34882DB}"/>
-    <hyperlink ref="E6" r:id="rId3" display="mailto:conseil@prevention-rga.org" xr:uid="{DB870E6E-A641-47F8-91B7-41B57FA2C917}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{66ED3596-51F4-42E8-B35E-553C589B6F49}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{B8B40549-FAC6-4218-9E82-5B8B58F44EFB}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{9497F467-8230-4A2C-98F8-C03A05D5A298}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{48C0891A-936E-400F-A332-08C2F34882DB}"/>
+    <hyperlink ref="D6" r:id="rId3" display="mailto:conseil@prevention-rga.org" xr:uid="{DB870E6E-A641-47F8-91B7-41B57FA2C917}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{66ED3596-51F4-42E8-B35E-553C589B6F49}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{B8B40549-FAC6-4218-9E82-5B8B58F44EFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
